--- a/1HL_Neurons_Network_Results_KFold_CV_V1.xlsx
+++ b/1HL_Neurons_Network_Results_KFold_CV_V1.xlsx
@@ -483,22 +483,22 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>1.237945129018251</v>
+        <v>1.037751208412153</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4216545875237504</v>
+        <v>0.3386794330974879</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9007683011752221</v>
+        <v>0.7769132759154983</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2645609728932899</v>
+        <v>0.2468815290281262</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7230097830697222</v>
+        <v>0.784447205699656</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1795116483367376</v>
+        <v>0.1663388700669365</v>
       </c>
     </row>
     <row r="3">
@@ -509,22 +509,22 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8779568679446758</v>
+        <v>0.9189397154914616</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3168432615308069</v>
+        <v>0.2839919766172205</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6649256174606812</v>
+        <v>0.7141248761950324</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1930625451696844</v>
+        <v>0.230064496119037</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8528075382353244</v>
+        <v>0.8314128304645003</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09743827154911565</v>
+        <v>0.1096496358253652</v>
       </c>
     </row>
     <row r="4">
@@ -535,22 +535,22 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5897457938889163</v>
+        <v>0.6363502332471573</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2364639783763023</v>
+        <v>0.1831951504429204</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4604817870045296</v>
+        <v>0.4970591757741448</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1856279994500951</v>
+        <v>0.1412761886931238</v>
       </c>
       <c r="G4" t="n">
-        <v>0.935759778095378</v>
+        <v>0.920779224225549</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05021913193729964</v>
+        <v>0.05929046096585291</v>
       </c>
     </row>
     <row r="5">
@@ -561,22 +561,22 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5423876178583364</v>
+        <v>0.4941061484837656</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1417414965502581</v>
+        <v>0.06420133705440219</v>
       </c>
       <c r="E5" t="n">
-        <v>0.426190124544753</v>
+        <v>0.3695543377162545</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1275534554634819</v>
+        <v>0.05113482197031152</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9461556713920711</v>
+        <v>0.9566705704691951</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0285687801103593</v>
+        <v>0.01803579621043151</v>
       </c>
     </row>
     <row r="6">
@@ -587,22 +587,22 @@
         <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5679852414647335</v>
+        <v>0.5508820977835758</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2246719905293231</v>
+        <v>0.1051247067404717</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4390273706437932</v>
+        <v>0.4317051464846391</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1749006125737013</v>
+        <v>0.08890079727472257</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9405826493045577</v>
+        <v>0.9468634305371605</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04153466185500391</v>
+        <v>0.02197080861533314</v>
       </c>
     </row>
     <row r="7">
@@ -613,22 +613,22 @@
         <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4628688828578074</v>
+        <v>0.4385316330946395</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1301199232573796</v>
+        <v>0.1054181729334455</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3719661136561591</v>
+        <v>0.3381281986670027</v>
       </c>
       <c r="F7" t="n">
-        <v>0.126692472827385</v>
+        <v>0.1001152710728643</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9608395269826504</v>
+        <v>0.9656010478166538</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02358937367136693</v>
+        <v>0.01674582300915648</v>
       </c>
     </row>
     <row r="8">
@@ -639,22 +639,22 @@
         <v>40</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4837614558947963</v>
+        <v>0.4777439119405382</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1443434281463514</v>
+        <v>0.09123478506831008</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3768554452494057</v>
+        <v>0.3672963600357422</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1248385379967501</v>
+        <v>0.07738300076087881</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9570039594960935</v>
+        <v>0.9582363970852132</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0274862915255095</v>
+        <v>0.02170209890055646</v>
       </c>
     </row>
     <row r="9">
@@ -665,22 +665,22 @@
         <v>45</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4634813900022255</v>
+        <v>0.3913728663459605</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07664976981577282</v>
+        <v>0.06710255779870425</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3645227088617029</v>
+        <v>0.3033617499532006</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06572423833783286</v>
+        <v>0.05599859558825321</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9635222204761454</v>
+        <v>0.9730875963887483</v>
       </c>
       <c r="H9" t="n">
-        <v>0.009799018050131367</v>
+        <v>0.0105898636605058</v>
       </c>
     </row>
     <row r="10">
@@ -691,22 +691,22 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4369991528325053</v>
+        <v>0.43690922122105</v>
       </c>
       <c r="D10" t="n">
-        <v>0.102189604843826</v>
+        <v>0.09153606232105498</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3575516366862765</v>
+        <v>0.3474158065332134</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1156708802221274</v>
+        <v>0.09728155138120159</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9667530380056586</v>
+        <v>0.9642287727381514</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0140266515164479</v>
+        <v>0.02081792867865144</v>
       </c>
     </row>
     <row r="11">
@@ -717,22 +717,22 @@
         <v>55</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3359183943115258</v>
+        <v>0.3479957964575555</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05031462104040796</v>
+        <v>0.03965230589315168</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2529564171575852</v>
+        <v>0.259741409083731</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04141375393107789</v>
+        <v>0.03513637188790041</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9809510099337014</v>
+        <v>0.9790718892423648</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004269027927172923</v>
+        <v>0.006035624887993157</v>
       </c>
     </row>
     <row r="12">
@@ -743,22 +743,22 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.442089245721324</v>
+        <v>0.3419838115100893</v>
       </c>
       <c r="D12" t="n">
-        <v>0.092663630288494</v>
+        <v>0.04084070672542729</v>
       </c>
       <c r="E12" t="n">
-        <v>0.354131238286142</v>
+        <v>0.251174634163331</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08980456210952992</v>
+        <v>0.02728454309932147</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9631699942244982</v>
+        <v>0.9802170763026353</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0215292668072919</v>
+        <v>0.00369172587203302</v>
       </c>
     </row>
     <row r="13">
@@ -769,22 +769,22 @@
         <v>65</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3865782151469849</v>
+        <v>0.3938856641915747</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07194728336472107</v>
+        <v>0.05623102393684151</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3007851980042088</v>
+        <v>0.3122288427885206</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07172622850224568</v>
+        <v>0.05786085325019538</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9733639281006472</v>
+        <v>0.972343985963979</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01208942510704249</v>
+        <v>0.01045146997511468</v>
       </c>
     </row>
     <row r="14">
@@ -795,22 +795,22 @@
         <v>70</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3866480277694494</v>
+        <v>0.43606945387535</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04564661233842492</v>
+        <v>0.1110318569949993</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2989582227498746</v>
+        <v>0.3251498783638737</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04770237383242621</v>
+        <v>0.08374093123722823</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9745028179239996</v>
+        <v>0.9657775702577365</v>
       </c>
       <c r="H14" t="n">
-        <v>0.005396193247517155</v>
+        <v>0.01737918765027809</v>
       </c>
     </row>
     <row r="15">
@@ -821,22 +821,22 @@
         <v>75</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4439325225067945</v>
+        <v>0.3722071432892327</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09903559124779035</v>
+        <v>0.072372053109614</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3679267112438238</v>
+        <v>0.2804689556494844</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09586787519058917</v>
+        <v>0.05931438423451252</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9653031613463149</v>
+        <v>0.9755837992920767</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01289457933332863</v>
+        <v>0.008743400212797899</v>
       </c>
     </row>
     <row r="16">
@@ -847,22 +847,22 @@
         <v>80</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3549638225930323</v>
+        <v>0.3877867832160229</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06052410224058877</v>
+        <v>0.08203336543348475</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2763844862329081</v>
+        <v>0.316881869849449</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06275006170885343</v>
+        <v>0.08664106330102356</v>
       </c>
       <c r="G16" t="n">
-        <v>0.978820998450877</v>
+        <v>0.9737017698234183</v>
       </c>
       <c r="H16" t="n">
-        <v>0.005012381731788832</v>
+        <v>0.01081526203255699</v>
       </c>
     </row>
   </sheetData>
